--- a/Big Bang/Batch Upload/Student/StudentProfile-Batch Upload(with validation).xlsx
+++ b/Big Bang/Batch Upload/Student/StudentProfile-Batch Upload(with validation).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="-45" windowWidth="17235" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$AC$1</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Last_Name</t>
   </si>
@@ -119,6 +119,9 @@
     <t>Jr</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>single</t>
   </si>
   <si>
@@ -297,34 +300,15 @@
   </si>
   <si>
     <t>BulSU-Hagonoy</t>
-  </si>
-  <si>
-    <t>BATSTATU-Malvar</t>
-  </si>
-  <si>
-    <t>ssw</t>
-  </si>
-  <si>
-    <t>aad</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,6 +321,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -347,7 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,23 +353,146 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -387,6 +500,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AC1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:AC1048576"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="Last_Name" dataDxfId="28"/>
+    <tableColumn id="2" name="First_Name" dataDxfId="27"/>
+    <tableColumn id="3" name="Middle_Initial" dataDxfId="26"/>
+    <tableColumn id="4" name="Name_Suffix" dataDxfId="25"/>
+    <tableColumn id="5" name="Student ID Number" dataDxfId="24"/>
+    <tableColumn id="6" name="New_Applicant?" dataDxfId="23"/>
+    <tableColumn id="7" name="Civil_Status" dataDxfId="22"/>
+    <tableColumn id="8" name="Birthdate" dataDxfId="21"/>
+    <tableColumn id="9" name="Birthplace" dataDxfId="20"/>
+    <tableColumn id="10" name="Gender" dataDxfId="19"/>
+    <tableColumn id="11" name="Nationality" dataDxfId="18"/>
+    <tableColumn id="12" name="Street_Number" dataDxfId="17"/>
+    <tableColumn id="13" name="Street_Name" dataDxfId="16"/>
+    <tableColumn id="14" name="City" dataDxfId="15"/>
+    <tableColumn id="15" name="Province" dataDxfId="14"/>
+    <tableColumn id="16" name="Region" dataDxfId="13"/>
+    <tableColumn id="17" name="Alternate_Address" dataDxfId="12"/>
+    <tableColumn id="18" name="Mobile_Number" dataDxfId="11"/>
+    <tableColumn id="19" name="Landline" dataDxfId="10"/>
+    <tableColumn id="20" name="Email" dataDxfId="9"/>
+    <tableColumn id="21" name="Facebook" dataDxfId="8"/>
+    <tableColumn id="22" name="Degree" dataDxfId="7"/>
+    <tableColumn id="23" name="Course" dataDxfId="6"/>
+    <tableColumn id="24" name="Year" dataDxfId="5"/>
+    <tableColumn id="25" name="School" dataDxfId="4"/>
+    <tableColumn id="26" name="Expected_Year_of_Graduation" dataDxfId="3"/>
+    <tableColumn id="27" name="DOST_Scholar?" dataDxfId="2"/>
+    <tableColumn id="28" name="Scholar?" dataDxfId="1"/>
+    <tableColumn id="29" name="Interested_in_IT-BPO?" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,6 +615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -498,6 +650,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,237 +826,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>101047</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H2" s="3">
         <v>34286</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2">
         <v>3515</v>
       </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R2">
+      <c r="P2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2">
         <v>9178316188</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>6553797</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X2">
+      <c r="W2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="2">
         <v>4</v>
       </c>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
         <v>2020</v>
       </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3">
-        <v>1245</v>
+      <c r="AB2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1"/>
-  <dataValidations count="25">
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <dataValidations count="26">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="A1:A1048576">
       <formula1>1</formula1>
       <formula2>45</formula2>
@@ -958,7 +1097,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Gender must be M or F." prompt="Gender must be M or F." sqref="J1:J1048576">
       <formula1>"M,F,Male,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Answer must be yes or no." prompt="Answer must be Yes or No." sqref="F1:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Invalid input. Answer must be yes or no." prompt="Answer must be Yes or No." sqref="F1:F3 F5:F1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Answer must be yes or no." prompt="Answer must be yes or no." sqref="AA1:AA1048576">
@@ -993,6 +1132,9 @@
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input." prompt="ID should contain 10 characters at most." sqref="E1:E1048576">
       <formula1>1</formula1>
       <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Answer must be yes or no." prompt="Answer must be Yes or No." sqref="F4">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1000,6 +1142,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1016,153 +1161,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:47">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AP4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AR4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AU4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
